--- a/Empirehomecrm/src/main/java/com/testdata/empire3.xlsx
+++ b/Empirehomecrm/src/main/java/com/testdata/empire3.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7530"/>
+    <workbookView windowWidth="16485" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:J2"/>
 </workbook>
 </file>
 
@@ -1211,7 +1212,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
